--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>783942.0794672456</v>
+        <v>782054.4979508432</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431907.2506167185</v>
+        <v>178470.8803722545</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>313.0665364913423</v>
+        <v>276.3850581216917</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>45.15939909649886</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>4.977754783587348</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>292.8492168117527</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>293.842063945176</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>56.57756245340212</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>54.54548707014996</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>250.1325537001773</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>212.4613476457862</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>205.6055555187478</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710065</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.8070559676941</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>176.530542900156</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.09705563176716</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>234.2070815573228</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>122.2856036254973</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>101.0041688483407</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>134.7426179953491</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>249.8755219314434</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>118.4928596663632</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>145.3660141484328</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,13 +2950,13 @@
         <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>5.322702126634347</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523561</v>
+        <v>54.76109577523558</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,13 +3004,13 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>124.5988793645971</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069493</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2127.158480917584</v>
+        <v>1890.547122773323</v>
       </c>
       <c r="W2" t="n">
-        <v>2127.158480917584</v>
+        <v>1537.778467503209</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2226.327015842551</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>2226.327015842551</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>2226.327015842551</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>2226.327015842551</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>2226.327015842551</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>2226.327015842551</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.578643275081</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>466.3758425937212</v>
       </c>
       <c r="V4" t="n">
-        <v>2407.975480672791</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.975480672791</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>2407.975480672791</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>2407.975480672791</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1623.178216428726</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1254.215699488314</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>895.9500008815637</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>510.1617482833195</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>503.216247534116</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.178216428726</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>458.7441094385871</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1409.824428977775</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>1036.358670716696</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4896,7 +4896,7 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.227105931296</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.747761568914</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>773.1661474848149</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>773.1661474848149</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>623.0495080724792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>475.1364144900861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150547</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.8146123150547</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>332.4477678248119</v>
       </c>
       <c r="L15" t="n">
-        <v>672.23610901302</v>
+        <v>562.4108736931611</v>
       </c>
       <c r="M15" t="n">
-        <v>1440.604255405482</v>
+        <v>1330.779020085623</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.124911043099</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028587</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557903</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>831.5539419898857</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="W16" t="n">
-        <v>542.1367719529251</v>
+        <v>665.6859735286133</v>
       </c>
       <c r="X16" t="n">
-        <v>542.1367719529251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1367719529251</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>348.5897879510698</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>578.552893819419</v>
       </c>
       <c r="M18" t="n">
-        <v>794.1790493843997</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>671.7300455988213</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C19" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7169704793943</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527474</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N21" t="n">
-        <v>1210.105893490365</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>1879.569654793025</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2399.870276528772</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>834.5937666237584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>665.6575836958515</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>515.5409442835157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6278507011226</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>220.7379032032124</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>709.4512536188986</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>420.0340835819379</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.242231453998</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M24" t="n">
-        <v>897.6601296826478</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
         <v>247.3337308726216</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1362.812616017146</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1362.812616017146</v>
+        <v>911.6562348067655</v>
       </c>
       <c r="V25" t="n">
-        <v>1108.128127811259</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="W25" t="n">
-        <v>818.7109577742983</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>514.9365816937657</v>
+        <v>391.9645427683689</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550148</v>
+        <v>391.9645427683689</v>
       </c>
       <c r="D28" t="n">
         <v>245.130185042679</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609661</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609661</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W28" t="n">
-        <v>696.5850465240054</v>
+        <v>619.9540936663863</v>
       </c>
       <c r="X28" t="n">
-        <v>696.5850465240054</v>
+        <v>391.9645427683689</v>
       </c>
       <c r="Y28" t="n">
-        <v>696.5850465240054</v>
+        <v>391.9645427683689</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6546,22 +6546,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527475</v>
+        <v>887.0301175853477</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.809122337732</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>547.3312808061764</v>
+        <v>439.5324299542207</v>
       </c>
       <c r="C31" t="n">
-        <v>434.1559631596404</v>
+        <v>434.1559631596406</v>
       </c>
       <c r="D31" t="n">
-        <v>339.8001890286755</v>
+        <v>339.8001890286757</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569675</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899272</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1010.479279833851</v>
+        <v>902.6804289818951</v>
       </c>
       <c r="X31" t="n">
-        <v>838.2505942172045</v>
+        <v>730.4517433652487</v>
       </c>
       <c r="Y31" t="n">
-        <v>673.2188803550453</v>
+        <v>565.4200295030895</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2115.681725457454</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7084,7 +7084,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>2246.75132785554</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6581146605672</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6581146605672</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>207.4469684815951</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>273.7927652855384</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>390.296983530004</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>436.6774396287918</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>257.9034457541596</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>54.45066026879992</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>30.61399205523714</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>48.7569365921157</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.60710042367197</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.73492455017013</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23947,10 +23947,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>52.31591677926818</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>44.20796483788033</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>124.7054865406964</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>86.80494306304013</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>36.36183046713393</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>48.75396143226465</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.249458869779541</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.7208623434363</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>106.7208623434367</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1016675.555318043</v>
+        <v>1016675.555318044</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1016675.555318044</v>
+        <v>1016675.555318043</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1016675.555318043</v>
+        <v>1016675.555318044</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1016675.555318043</v>
+        <v>1016675.555318044</v>
       </c>
     </row>
     <row r="11">
@@ -26314,16 +26314,16 @@
         <v>369468.7964389273</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
         <v>351926.1537639379</v>
       </c>
       <c r="F2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639378</v>
       </c>
       <c r="G2" t="n">
         <v>351926.1537639379</v>
@@ -26335,10 +26335,10 @@
         <v>351926.1537639379</v>
       </c>
       <c r="J2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639382</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107425</v>
+        <v>366139.9236107424</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389282</v>
@@ -26347,13 +26347,13 @@
         <v>369468.7964389281</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389282</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389281</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389282</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086676</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26421,28 +26421,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758797</v>
+        <v>787.7936905759168</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758372</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758436</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189634</v>
@@ -26454,10 +26454,10 @@
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022282</v>
@@ -26503,7 +26503,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442417.3000196456</v>
+        <v>-442417.3000196457</v>
       </c>
       <c r="C6" t="n">
-        <v>147550.5791948989</v>
+        <v>147550.5791948987</v>
       </c>
       <c r="D6" t="n">
-        <v>147550.5791948989</v>
+        <v>147550.5791948987</v>
       </c>
       <c r="E6" t="n">
-        <v>-266009.0023522507</v>
+        <v>-266106.4614782229</v>
       </c>
       <c r="F6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986731</v>
       </c>
       <c r="G6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986729</v>
       </c>
       <c r="H6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986734</v>
       </c>
       <c r="I6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986733</v>
       </c>
       <c r="J6" t="n">
-        <v>82727.81493205258</v>
+        <v>82630.35580608058</v>
       </c>
       <c r="K6" t="n">
-        <v>206396.6935729015</v>
+        <v>206378.1998349671</v>
       </c>
       <c r="L6" t="n">
         <v>238204.2028861397</v>
@@ -26555,13 +26555,13 @@
         <v>113746.0944531692</v>
       </c>
       <c r="N6" t="n">
+        <v>248547.1096870065</v>
+      </c>
+      <c r="O6" t="n">
         <v>248547.1096870064</v>
       </c>
-      <c r="O6" t="n">
-        <v>248547.1096870063</v>
-      </c>
       <c r="P6" t="n">
-        <v>204384.5043841606</v>
+        <v>204384.5043841607</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108345</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>14.68572197879263</v>
+        <v>51.36720034844319</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>89.80622269583937</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>281.3041194583904</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>120.9349532090422</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>55.39890477223702</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>123.2544177285352</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>231.7363871718278</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>99.10841501723573</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>173.7765910102674</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>181.7172520189445</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>80.91744281784315</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.579990433327139e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29575,10 +29575,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31127,10 +31127,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576413</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,10 +31592,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>149.8971812516343</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>85.91060034184022</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>394.9841349460416</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>221.9175268955026</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>127.2880165989359</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>21.52118431133891</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32558,7 +32558,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>10.78379835447009</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32570,7 +32570,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>155.8673437717548</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32795,19 +32795,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>252.6713260851627</v>
+        <v>369.6935619162747</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32947,7 +32947,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
@@ -33023,28 +33023,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>225.9628574215824</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33269,16 +33269,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>241.9339401282938</v>
       </c>
       <c r="N30" t="n">
-        <v>225.9628574215823</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33509,7 +33509,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33667,7 +33667,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
         <v>562.4526372540886</v>
@@ -33676,7 +33676,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>6.554244047028305</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,25 +34445,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>100.5826050876806</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>318.1965658654252</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>646.2502097783267</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35510,7 +35510,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>69.60552950723608</v>
       </c>
       <c r="L15" t="n">
-        <v>454.2034924190876</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>253.9118146371555</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>345.0922141393205</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>334.3548281824517</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
@@ -36218,10 +36218,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>225.9628574215824</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>576.2423559131443</v>
+        <v>693.2645917442563</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>573.9635196818026</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>131.196520841094</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>565.5049699562754</v>
       </c>
       <c r="N30" t="n">
-        <v>573.9635196818025</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084857</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37157,19 +37157,19 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>247.7007390855595</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>294.5434057067735</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>354.5549063072485</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>115.3072013097152</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>60.72709196759495</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>424.1536349156622</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
